--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13340" windowHeight="6090"/>
+    <workbookView windowWidth="25600" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -994,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="C1:F6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7789473684211" style="1"/>
   </cols>
@@ -1041,6 +1054,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
